--- a/list of countrie.xlsx
+++ b/list of countrie.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/armaan/Developer/Delicious-Descoveries/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vrishab Shenvi\Desktop\Web Dev\Minipro DD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D7B3EE9-9157-8E43-B61E-18000611ED4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E818589E-0613-4620-8CDE-C6AC06E6C051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3080" yWindow="2120" windowWidth="28040" windowHeight="17440" xr2:uid="{EB6D4232-37E0-D34F-B3A8-46FAD6E4D2CC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB6D4232-37E0-D34F-B3A8-46FAD6E4D2CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,21 +34,370 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Dish</t>
-  </si>
-  <si>
-    <t>Country</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="108">
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Fries</t>
+  </si>
+  <si>
+    <t>Batata vada</t>
+  </si>
+  <si>
+    <t>Chicken Biryani</t>
+  </si>
+  <si>
+    <t>Dal Tadka</t>
+  </si>
+  <si>
+    <t>Dosa</t>
+  </si>
+  <si>
+    <t>Gobi Manchurian</t>
+  </si>
+  <si>
+    <t>Idli</t>
+  </si>
+  <si>
+    <t>Jalebi</t>
+  </si>
+  <si>
+    <t>Kheer</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Spaghetti Carbonara</t>
+  </si>
+  <si>
+    <t>Samosa</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Croissant</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Chinese Dumplings</t>
+  </si>
+  <si>
+    <t>Potato Gnocchi</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Chicken Adobo</t>
+  </si>
+  <si>
+    <t>Ratatouille</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Shawarma</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Tacos</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Pho</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Sushi</t>
+  </si>
+  <si>
+    <t>Baba Ganoush</t>
+  </si>
+  <si>
+    <t>Bruschetta</t>
+  </si>
+  <si>
+    <t>Cannoli</t>
+  </si>
+  <si>
+    <t>Caponata</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Poutine</t>
+  </si>
+  <si>
+    <t>Potato Salad</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Baklava</t>
+  </si>
+  <si>
+    <t>Risotto</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Paella</t>
+  </si>
+  <si>
+    <t>Fettuccine Alfredo</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Kimchi</t>
+  </si>
+  <si>
+    <t>Chicken Tikka Masala</t>
+  </si>
+  <si>
+    <t>Tiramisu</t>
+  </si>
+  <si>
+    <t>Beef Bourguignon</t>
+  </si>
+  <si>
+    <t>Brisket</t>
+  </si>
+  <si>
+    <t>Zucchini Bread</t>
+  </si>
+  <si>
+    <t>Middle Eastern</t>
+  </si>
+  <si>
+    <t>Shakshuka</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Soufflé</t>
+  </si>
+  <si>
+    <t>Cabbage Rolls</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Empanadas</t>
+  </si>
+  <si>
+    <t>Boeuf Bourguignon</t>
+  </si>
+  <si>
+    <t>Pasta Carbonara</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Moussaka</t>
+  </si>
+  <si>
+    <t>Pork Adobo</t>
+  </si>
+  <si>
+    <t>Pad Thai</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Mole Poblano</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Goulash</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Arroz Con Pollo</t>
+  </si>
+  <si>
+    <t>Vegetable Samosas</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Rakija</t>
+  </si>
+  <si>
+    <t>Tapas</t>
+  </si>
+  <si>
+    <t>Churros</t>
+  </si>
+  <si>
+    <t>Panzanella</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Laksa</t>
+  </si>
+  <si>
+    <t>Potato Leek Soup</t>
+  </si>
+  <si>
+    <t>Risotto with Mushrooms</t>
+  </si>
+  <si>
+    <t>Beef Stroganoff</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Sauerbraten</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Pavlova</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Couscous</t>
+  </si>
+  <si>
+    <t>Ramen</t>
+  </si>
+  <si>
+    <t>Gyoza</t>
+  </si>
+  <si>
+    <t>Crepes</t>
+  </si>
+  <si>
+    <t>Chicken Enchiladas</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Beef Wellington</t>
+  </si>
+  <si>
+    <t>Kimchi Fried Rice</t>
+  </si>
+  <si>
+    <t>Falafel</t>
+  </si>
+  <si>
+    <t>Stuffed Bell Peppers</t>
+  </si>
+  <si>
+    <t>Chicken Schnitzel</t>
+  </si>
+  <si>
+    <t>Lamb Tagine</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Ceviche</t>
+  </si>
+  <si>
+    <t>Bangers and Mash</t>
+  </si>
+  <si>
+    <t>Shepherd's Pie</t>
+  </si>
+  <si>
+    <t>Chana Masala</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Jollof Rice</t>
+  </si>
+  <si>
+    <t>Samosas</t>
+  </si>
+  <si>
+    <t>Butter Chicken</t>
+  </si>
+  <si>
+    <t>Tabbouleh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -76,8 +424,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,20 +744,391 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1E0269-C437-A94E-8279-C3E013FE070B}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:AE16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="AD1" sqref="AD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.19921875" customWidth="1"/>
+    <col min="2" max="2" width="17.09765625" customWidth="1"/>
+    <col min="3" max="3" width="21.59765625" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="16.796875" customWidth="1"/>
+    <col min="6" max="6" width="14.296875" customWidth="1"/>
+    <col min="7" max="7" width="12.8984375" customWidth="1"/>
+    <col min="8" max="8" width="16.59765625" customWidth="1"/>
+    <col min="9" max="9" width="14.8984375" customWidth="1"/>
+    <col min="14" max="14" width="15.09765625" customWidth="1"/>
+    <col min="15" max="15" width="17.8984375" customWidth="1"/>
+    <col min="16" max="16" width="12.8984375" customWidth="1"/>
+    <col min="17" max="17" width="12.09765625" customWidth="1"/>
+    <col min="21" max="21" width="13.69921875" customWidth="1"/>
+    <col min="24" max="24" width="13.8984375" customWidth="1"/>
+    <col min="25" max="25" width="15.3984375" customWidth="1"/>
+    <col min="28" max="28" width="19.796875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:31" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:31" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S3" t="s">
+        <v>62</v>
+      </c>
+      <c r="T3" t="s">
+        <v>66</v>
+      </c>
+      <c r="U3" t="s">
+        <v>68</v>
+      </c>
+      <c r="V3" t="s">
+        <v>71</v>
+      </c>
+      <c r="W3" t="s">
+        <v>76</v>
+      </c>
+      <c r="X3" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>87</v>
+      </c>
+      <c r="M4" t="s">
+        <v>72</v>
+      </c>
+      <c r="N4" t="s">
+        <v>93</v>
+      </c>
+      <c r="O4" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" t="s">
+        <v>90</v>
+      </c>
+      <c r="J5" t="s">
+        <v>88</v>
+      </c>
+      <c r="M5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/list of countrie.xlsx
+++ b/list of countrie.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vrishab Shenvi\Desktop\Web Dev\Minipro DD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/armaan/Developer/Delicious-Descoveries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E818589E-0613-4620-8CDE-C6AC06E6C051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AA0B5F-40EB-624A-AA3F-AC896C994834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB6D4232-37E0-D34F-B3A8-46FAD6E4D2CC}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="34200" windowHeight="19680" xr2:uid="{EB6D4232-37E0-D34F-B3A8-46FAD6E4D2CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,9 +75,6 @@
     <t>Spaghetti Carbonara</t>
   </si>
   <si>
-    <t>Samosa</t>
-  </si>
-  <si>
     <t>France</t>
   </si>
   <si>
@@ -243,9 +240,6 @@
     <t>Arroz Con Pollo</t>
   </si>
   <si>
-    <t>Vegetable Samosas</t>
-  </si>
-  <si>
     <t>Serbia</t>
   </si>
   <si>
@@ -351,13 +345,19 @@
     <t>Jollof Rice</t>
   </si>
   <si>
-    <t>Samosas</t>
-  </si>
-  <si>
     <t>Butter Chicken</t>
   </si>
   <si>
     <t>Tabbouleh</t>
+  </si>
+  <si>
+    <t>Mutton Samosa</t>
+  </si>
+  <si>
+    <t>Chicken Samosa</t>
+  </si>
+  <si>
+    <t>Vegetable Samosa</t>
   </si>
 </sst>
 </file>
@@ -747,31 +747,31 @@
   <dimension ref="A1:AE16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD1" sqref="AD1"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.19921875" customWidth="1"/>
-    <col min="2" max="2" width="17.09765625" customWidth="1"/>
-    <col min="3" max="3" width="21.59765625" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="16.796875" customWidth="1"/>
-    <col min="6" max="6" width="14.296875" customWidth="1"/>
-    <col min="7" max="7" width="12.8984375" customWidth="1"/>
-    <col min="8" max="8" width="16.59765625" customWidth="1"/>
-    <col min="9" max="9" width="14.8984375" customWidth="1"/>
-    <col min="14" max="14" width="15.09765625" customWidth="1"/>
-    <col min="15" max="15" width="17.8984375" customWidth="1"/>
-    <col min="16" max="16" width="12.8984375" customWidth="1"/>
-    <col min="17" max="17" width="12.09765625" customWidth="1"/>
-    <col min="21" max="21" width="13.69921875" customWidth="1"/>
-    <col min="24" max="24" width="13.8984375" customWidth="1"/>
-    <col min="25" max="25" width="15.3984375" customWidth="1"/>
-    <col min="28" max="28" width="19.796875" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" customWidth="1"/>
+    <col min="14" max="14" width="15.1640625" customWidth="1"/>
+    <col min="15" max="15" width="17.83203125" customWidth="1"/>
+    <col min="16" max="16" width="12.83203125" customWidth="1"/>
+    <col min="17" max="17" width="12.1640625" customWidth="1"/>
+    <col min="21" max="21" width="13.6640625" customWidth="1"/>
+    <col min="24" max="24" width="13.83203125" customWidth="1"/>
+    <col min="25" max="25" width="15.33203125" customWidth="1"/>
+    <col min="28" max="28" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:31" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -782,94 +782,94 @@
         <v>11</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Y1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AA1" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="AB1" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" ht="18" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:31" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -880,255 +880,255 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="U3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="W3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="X3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Y3" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z3" t="s">
         <v>82</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>84</v>
       </c>
-      <c r="AA3" t="s">
-        <v>86</v>
-      </c>
       <c r="AB3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AC3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AD3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE3" t="s">
         <v>104</v>
       </c>
-      <c r="AE3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="N4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O4" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y4" t="s">
         <v>94</v>
       </c>
-      <c r="Y4" t="s">
-        <v>96</v>
-      </c>
       <c r="AA4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AB4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AB5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="C13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/list of countrie.xlsx
+++ b/list of countrie.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/armaan/Developer/Delicious-Descoveries/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vrishab Shenvi\Desktop\Web Dev\Minipro DD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AA0B5F-40EB-624A-AA3F-AC896C994834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59114999-B5E8-4E4C-B971-922EF4F42D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="34200" windowHeight="19680" xr2:uid="{EB6D4232-37E0-D34F-B3A8-46FAD6E4D2CC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB6D4232-37E0-D34F-B3A8-46FAD6E4D2CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>India</t>
   </si>
@@ -746,32 +746,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1E0269-C437-A94E-8279-C3E013FE070B}">
   <dimension ref="A1:AE16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AE1" sqref="AE1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.19921875" customWidth="1"/>
+    <col min="2" max="2" width="17.19921875" customWidth="1"/>
+    <col min="3" max="3" width="21.69921875" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
-    <col min="9" max="9" width="14.83203125" customWidth="1"/>
-    <col min="14" max="14" width="15.1640625" customWidth="1"/>
-    <col min="15" max="15" width="17.83203125" customWidth="1"/>
-    <col min="16" max="16" width="12.83203125" customWidth="1"/>
-    <col min="17" max="17" width="12.1640625" customWidth="1"/>
-    <col min="21" max="21" width="13.6640625" customWidth="1"/>
-    <col min="24" max="24" width="13.83203125" customWidth="1"/>
-    <col min="25" max="25" width="15.33203125" customWidth="1"/>
-    <col min="28" max="28" width="19.83203125" customWidth="1"/>
+    <col min="5" max="5" width="16.796875" customWidth="1"/>
+    <col min="6" max="6" width="14.296875" customWidth="1"/>
+    <col min="7" max="7" width="12.796875" customWidth="1"/>
+    <col min="8" max="8" width="16.69921875" customWidth="1"/>
+    <col min="9" max="9" width="14.796875" customWidth="1"/>
+    <col min="14" max="14" width="15.19921875" customWidth="1"/>
+    <col min="15" max="15" width="17.796875" customWidth="1"/>
+    <col min="16" max="16" width="12.796875" customWidth="1"/>
+    <col min="17" max="17" width="12.19921875" customWidth="1"/>
+    <col min="21" max="21" width="13.69921875" customWidth="1"/>
+    <col min="24" max="24" width="13.796875" customWidth="1"/>
+    <col min="25" max="25" width="15.296875" customWidth="1"/>
+    <col min="28" max="28" width="19.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -862,14 +862,12 @@
       <c r="AD1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="AE1" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+      <c r="AE1" s="3"/>
+    </row>
+    <row r="2" spans="1:31" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -960,11 +958,8 @@
       <c r="AD3" t="s">
         <v>102</v>
       </c>
-      <c r="AE3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1008,7 +1003,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1021,6 +1016,9 @@
       <c r="D5" t="s">
         <v>46</v>
       </c>
+      <c r="G5" t="s">
+        <v>104</v>
+      </c>
       <c r="H5" t="s">
         <v>88</v>
       </c>
@@ -1034,7 +1032,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1048,7 +1046,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1062,7 +1060,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1073,7 +1071,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1084,7 +1082,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1092,7 +1090,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>105</v>
       </c>
@@ -1100,7 +1098,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -1108,7 +1106,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>107</v>
       </c>
@@ -1116,17 +1114,17 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>103</v>
       </c>

--- a/list of countrie.xlsx
+++ b/list of countrie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vrishab Shenvi\Desktop\Web Dev\Minipro DD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59114999-B5E8-4E4C-B971-922EF4F42D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466EFECB-A04D-4D34-93CF-157976088461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB6D4232-37E0-D34F-B3A8-46FAD6E4D2CC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="108">
   <si>
     <t>India</t>
   </si>
@@ -744,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1E0269-C437-A94E-8279-C3E013FE070B}">
-  <dimension ref="A1:AE16"/>
+  <dimension ref="A1:AE18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AE1" sqref="AE1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1129,6 +1129,16 @@
         <v>103</v>
       </c>
     </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/list of countrie.xlsx
+++ b/list of countrie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vrishab Shenvi\Desktop\Web Dev\Minipro DD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466EFECB-A04D-4D34-93CF-157976088461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FC8DD3-A386-48BD-9AC3-9D6497EEE7B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB6D4232-37E0-D34F-B3A8-46FAD6E4D2CC}"/>
   </bookViews>
@@ -747,7 +747,7 @@
   <dimension ref="A1:AE18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -972,7 +972,7 @@
       <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>60</v>
       </c>
       <c r="G4" t="s">

--- a/list of countrie.xlsx
+++ b/list of countrie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vrishab Shenvi\Desktop\Web Dev\Minipro DD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FC8DD3-A386-48BD-9AC3-9D6497EEE7B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F350A3-2483-45C9-9788-472F1968CA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB6D4232-37E0-D34F-B3A8-46FAD6E4D2CC}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{EB6D4232-37E0-D34F-B3A8-46FAD6E4D2CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="154">
   <si>
     <t>India</t>
   </si>
@@ -358,6 +358,144 @@
   </si>
   <si>
     <t>Vegetable Samosa</t>
+  </si>
+  <si>
+    <t>Kang Pao Chicken</t>
+  </si>
+  <si>
+    <t>Mapo Tofu</t>
+  </si>
+  <si>
+    <t>Spring rolls</t>
+  </si>
+  <si>
+    <t>Hot and sour Soup</t>
+  </si>
+  <si>
+    <t>Char Siu Pork</t>
+  </si>
+  <si>
+    <t>Peking Duck</t>
+  </si>
+  <si>
+    <t>Wontons</t>
+  </si>
+  <si>
+    <t>Dan Dan Noodels</t>
+  </si>
+  <si>
+    <t>Sweet Sour pork</t>
+  </si>
+  <si>
+    <t>Scallion Pnacakes</t>
+  </si>
+  <si>
+    <t>Chowmein</t>
+  </si>
+  <si>
+    <t>Lo mein</t>
+  </si>
+  <si>
+    <t>Congee</t>
+  </si>
+  <si>
+    <t>Egg Fried Rice</t>
+  </si>
+  <si>
+    <t>Steamed Buns</t>
+  </si>
+  <si>
+    <t>Sichuan Boiled Fish</t>
+  </si>
+  <si>
+    <t>Tea Eggs</t>
+  </si>
+  <si>
+    <t>Sirt Fried Green Beans</t>
+  </si>
+  <si>
+    <t>Braised Pork Belly</t>
+  </si>
+  <si>
+    <t>Pineapple Buns</t>
+  </si>
+  <si>
+    <t>Beggars Chicken</t>
+  </si>
+  <si>
+    <t>Youtiao</t>
+  </si>
+  <si>
+    <t>Red-Cooked Pork</t>
+  </si>
+  <si>
+    <t>Dongpo Pork</t>
+  </si>
+  <si>
+    <t>Fish Fragnant Eggplant</t>
+  </si>
+  <si>
+    <t>Shrimp Dumplings</t>
+  </si>
+  <si>
+    <t>Sesame Chicken</t>
+  </si>
+  <si>
+    <t>Bitter Melon Stir-Fry</t>
+  </si>
+  <si>
+    <t>Chicken Feet Dim sum</t>
+  </si>
+  <si>
+    <t>Egg Tarts</t>
+  </si>
+  <si>
+    <t>Chili Oil Wontons</t>
+  </si>
+  <si>
+    <t>Lomai Gai</t>
+  </si>
+  <si>
+    <t>Chinese Broccoli with Oyster Sauce</t>
+  </si>
+  <si>
+    <t>Pork Dumplings</t>
+  </si>
+  <si>
+    <t>Pork belly Bao</t>
+  </si>
+  <si>
+    <t>Beef Chaw Fun</t>
+  </si>
+  <si>
+    <t>Twice Cooked Pork</t>
+  </si>
+  <si>
+    <t>Steamed fish With Ginger</t>
+  </si>
+  <si>
+    <t>BBQ pork Buns</t>
+  </si>
+  <si>
+    <t>Three Cup Chicken</t>
+  </si>
+  <si>
+    <t>Shanghai Soup Dumplings</t>
+  </si>
+  <si>
+    <t>Spicy Sichuan Green Beans</t>
+  </si>
+  <si>
+    <t>Sweet and Sour pork</t>
+  </si>
+  <si>
+    <t>Egg Drop Soup</t>
+  </si>
+  <si>
+    <t>Chinese Hot pot</t>
+  </si>
+  <si>
+    <t>Cold Noodles with Sesame Sauce</t>
   </si>
 </sst>
 </file>
@@ -424,12 +562,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -744,10 +885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1E0269-C437-A94E-8279-C3E013FE070B}">
-  <dimension ref="A1:AE18"/>
+  <dimension ref="A1:AE49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="C35" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -756,7 +897,7 @@
     <col min="2" max="2" width="17.19921875" customWidth="1"/>
     <col min="3" max="3" width="21.69921875" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="16.796875" customWidth="1"/>
+    <col min="5" max="5" width="20.296875" customWidth="1"/>
     <col min="6" max="6" width="14.296875" customWidth="1"/>
     <col min="7" max="7" width="12.796875" customWidth="1"/>
     <col min="8" max="8" width="16.69921875" customWidth="1"/>
@@ -972,6 +1113,9 @@
       <c r="D4" t="s">
         <v>20</v>
       </c>
+      <c r="E4" t="s">
+        <v>108</v>
+      </c>
       <c r="F4" t="s">
         <v>60</v>
       </c>
@@ -1016,6 +1160,9 @@
       <c r="D5" t="s">
         <v>46</v>
       </c>
+      <c r="E5" t="s">
+        <v>109</v>
+      </c>
       <c r="G5" t="s">
         <v>104</v>
       </c>
@@ -1045,6 +1192,9 @@
       <c r="D6" t="s">
         <v>52</v>
       </c>
+      <c r="E6" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1059,6 +1209,9 @@
       <c r="D7" t="s">
         <v>56</v>
       </c>
+      <c r="E7" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1070,6 +1223,9 @@
       <c r="D8" t="s">
         <v>75</v>
       </c>
+      <c r="E8" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1081,6 +1237,9 @@
       <c r="D9" t="s">
         <v>87</v>
       </c>
+      <c r="E9" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1089,6 +1248,9 @@
       <c r="C10" t="s">
         <v>45</v>
       </c>
+      <c r="E10" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1097,6 +1259,9 @@
       <c r="C11" t="s">
         <v>57</v>
       </c>
+      <c r="E11" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1105,6 +1270,9 @@
       <c r="C12" t="s">
         <v>72</v>
       </c>
+      <c r="E12" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -1113,33 +1281,207 @@
       <c r="C13" t="s">
         <v>76</v>
       </c>
+      <c r="E13" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>100</v>
       </c>
+      <c r="E14" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>106</v>
       </c>
+      <c r="E15" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>106</v>
       </c>
+      <c r="E18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E31" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E32" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E33" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E34" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E35" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="5:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E36" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E37" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E38" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E39" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E40" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="41" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E41" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="42" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E42" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="43" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E43" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="44" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E44" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="45" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E45" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="46" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E46" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="47" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E47" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="48" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E48" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E49" t="s">
+        <v>153</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/list of countrie.xlsx
+++ b/list of countrie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vrishab Shenvi\Desktop\Web Dev\Minipro DD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F350A3-2483-45C9-9788-472F1968CA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960653D9-1181-45B3-8D30-F901D615545D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{EB6D4232-37E0-D34F-B3A8-46FAD6E4D2CC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB6D4232-37E0-D34F-B3A8-46FAD6E4D2CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
   <si>
     <t>India</t>
   </si>
@@ -887,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1E0269-C437-A94E-8279-C3E013FE070B}">
   <dimension ref="A1:AE49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C35" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1309,88 +1309,82 @@
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>105</v>
-      </c>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E17" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>106</v>
-      </c>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E18" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E19" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E20" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E23" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E24" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E25" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E26" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E27" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E28" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E29" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E30" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
         <v>136</v>
       </c>

--- a/list of countrie.xlsx
+++ b/list of countrie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vrishab Shenvi\Desktop\Web Dev\Minipro DD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960653D9-1181-45B3-8D30-F901D615545D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE479A63-26FB-4399-A6D9-E5056E0FFB17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB6D4232-37E0-D34F-B3A8-46FAD6E4D2CC}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{EB6D4232-37E0-D34F-B3A8-46FAD6E4D2CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="222">
   <si>
     <t>India</t>
   </si>
@@ -496,13 +496,240 @@
   </si>
   <si>
     <t>Cold Noodles with Sesame Sauce</t>
+  </si>
+  <si>
+    <t>Paneer Butter Masala</t>
+  </si>
+  <si>
+    <t>Rogan Josh</t>
+  </si>
+  <si>
+    <t>Pav Bhaji</t>
+  </si>
+  <si>
+    <t>Aloo Paratha</t>
+  </si>
+  <si>
+    <t>Baingan Bharta</t>
+  </si>
+  <si>
+    <t>Samosa Chaat</t>
+  </si>
+  <si>
+    <t>Palak Paneer</t>
+  </si>
+  <si>
+    <t>Poha</t>
+  </si>
+  <si>
+    <t>Rajma Chawal</t>
+  </si>
+  <si>
+    <t>Pani Puri</t>
+  </si>
+  <si>
+    <t>Dal Makhani</t>
+  </si>
+  <si>
+    <t>Mutter Paneer</t>
+  </si>
+  <si>
+    <t>Cheeseburger</t>
+  </si>
+  <si>
+    <t>Fried Chicken</t>
+  </si>
+  <si>
+    <t>Macaroni and Cheese</t>
+  </si>
+  <si>
+    <t>Hot Dog</t>
+  </si>
+  <si>
+    <t>Buffalo Wings</t>
+  </si>
+  <si>
+    <t>Apple Pie</t>
+  </si>
+  <si>
+    <t>Pancakes</t>
+  </si>
+  <si>
+    <t>Meatloaf</t>
+  </si>
+  <si>
+    <t>Cornbread</t>
+  </si>
+  <si>
+    <t>Clam Chowder</t>
+  </si>
+  <si>
+    <t>BBQ Ribs</t>
+  </si>
+  <si>
+    <t>Coleslaw</t>
+  </si>
+  <si>
+    <t>Caesar Salad</t>
+  </si>
+  <si>
+    <r>
+      <t>Margherita</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pizza</t>
+    </r>
+  </si>
+  <si>
+    <t>Risotto alla Milanese</t>
+  </si>
+  <si>
+    <t>Lasagna Bolognese</t>
+  </si>
+  <si>
+    <t>Gnocchi alla Sorrentina</t>
+  </si>
+  <si>
+    <t>Minestrone Soup</t>
+  </si>
+  <si>
+    <t>Osso Buco</t>
+  </si>
+  <si>
+    <t>Caprese Salad</t>
+  </si>
+  <si>
+    <t>Spaghetti alla Puttanesca</t>
+  </si>
+  <si>
+    <t>Calzone</t>
+  </si>
+  <si>
+    <t>Pollo alla Cacciatora</t>
+  </si>
+  <si>
+    <t>Gelato</t>
+  </si>
+  <si>
+    <t>Arancini</t>
+  </si>
+  <si>
+    <t>Zuppa Toscana</t>
+  </si>
+  <si>
+    <t>Saltimbocca</t>
+  </si>
+  <si>
+    <t>Pasta Primavera</t>
+  </si>
+  <si>
+    <t>Focaccia</t>
+  </si>
+  <si>
+    <t>Pasta al Pesto</t>
+  </si>
+  <si>
+    <t>Polenta</t>
+  </si>
+  <si>
+    <t>Stracciatella Soup</t>
+  </si>
+  <si>
+    <t>Biscotti</t>
+  </si>
+  <si>
+    <t>Ravioli</t>
+  </si>
+  <si>
+    <t>Spaghetti alle Vongole</t>
+  </si>
+  <si>
+    <t>Pasta e Ceci</t>
+  </si>
+  <si>
+    <t>Ribollita</t>
+  </si>
+  <si>
+    <t>Sinigang na Baboy</t>
+  </si>
+  <si>
+    <t>Lechon Kawali</t>
+  </si>
+  <si>
+    <t>Kare Kare</t>
+  </si>
+  <si>
+    <t>Pancit Canton</t>
+  </si>
+  <si>
+    <t>Sisig</t>
+  </si>
+  <si>
+    <t>Lumpia Shanghai</t>
+  </si>
+  <si>
+    <t>Tapsilog</t>
+  </si>
+  <si>
+    <t>Halo Halo</t>
+  </si>
+  <si>
+    <t>Bibingka</t>
+  </si>
+  <si>
+    <t>Bicol Express</t>
+  </si>
+  <si>
+    <t>Ginataang Langka</t>
+  </si>
+  <si>
+    <t>Beef Caldereta</t>
+  </si>
+  <si>
+    <t>Dinuguan</t>
+  </si>
+  <si>
+    <t>Suman</t>
+  </si>
+  <si>
+    <t>Pancit Palabok</t>
+  </si>
+  <si>
+    <t>Tocino</t>
+  </si>
+  <si>
+    <t>Champorado</t>
+  </si>
+  <si>
+    <t>Pinakbet</t>
+  </si>
+  <si>
+    <t>Longganisa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -541,6 +768,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -562,7 +797,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -570,6 +805,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -887,8 +1125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1E0269-C437-A94E-8279-C3E013FE070B}">
   <dimension ref="A1:AE49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1163,6 +1401,9 @@
       <c r="E5" t="s">
         <v>109</v>
       </c>
+      <c r="F5" s="6" t="s">
+        <v>203</v>
+      </c>
       <c r="G5" t="s">
         <v>104</v>
       </c>
@@ -1195,6 +1436,9 @@
       <c r="E6" t="s">
         <v>110</v>
       </c>
+      <c r="F6" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1212,11 +1456,17 @@
       <c r="E7" t="s">
         <v>111</v>
       </c>
+      <c r="F7" s="6" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
+      <c r="B8" s="6" t="s">
+        <v>166</v>
+      </c>
       <c r="C8" t="s">
         <v>38</v>
       </c>
@@ -1225,12 +1475,18 @@
       </c>
       <c r="E8" t="s">
         <v>112</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
+      <c r="B9" s="6" t="s">
+        <v>167</v>
+      </c>
       <c r="C9" t="s">
         <v>41</v>
       </c>
@@ -1239,232 +1495,418 @@
       </c>
       <c r="E9" t="s">
         <v>113</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
+      <c r="B10" s="6" t="s">
+        <v>168</v>
+      </c>
       <c r="C10" t="s">
         <v>45</v>
       </c>
       <c r="E10" t="s">
         <v>114</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>105</v>
       </c>
+      <c r="B11" s="6" t="s">
+        <v>169</v>
+      </c>
       <c r="C11" t="s">
         <v>57</v>
       </c>
       <c r="E11" t="s">
         <v>115</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>44</v>
       </c>
+      <c r="B12" s="6" t="s">
+        <v>170</v>
+      </c>
       <c r="C12" t="s">
         <v>72</v>
       </c>
       <c r="E12" t="s">
         <v>116</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>107</v>
       </c>
+      <c r="B13" s="6" t="s">
+        <v>171</v>
+      </c>
       <c r="C13" t="s">
         <v>76</v>
       </c>
       <c r="E13" t="s">
         <v>117</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>100</v>
       </c>
+      <c r="B14" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" t="s">
+        <v>179</v>
+      </c>
       <c r="E14" t="s">
         <v>118</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>106</v>
       </c>
+      <c r="B15" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" t="s">
+        <v>180</v>
+      </c>
       <c r="E15" t="s">
         <v>119</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>103</v>
       </c>
+      <c r="B16" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" t="s">
+        <v>181</v>
+      </c>
       <c r="E16" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="F16" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>154</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" t="s">
+        <v>182</v>
+      </c>
       <c r="E17" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="F17" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>155</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C18" t="s">
+        <v>183</v>
+      </c>
       <c r="E18" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="F18" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>156</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C19" t="s">
+        <v>184</v>
+      </c>
       <c r="E19" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="F19" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>157</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C20" t="s">
+        <v>185</v>
+      </c>
       <c r="E20" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="F20" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>158</v>
+      </c>
+      <c r="C21" t="s">
+        <v>186</v>
+      </c>
       <c r="E21" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="F21" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C22" t="s">
+        <v>187</v>
+      </c>
       <c r="E22" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="F22" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>160</v>
+      </c>
+      <c r="C23" t="s">
+        <v>188</v>
+      </c>
       <c r="E23" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="F23" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>161</v>
+      </c>
+      <c r="C24" t="s">
+        <v>189</v>
+      </c>
       <c r="E24" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C25" t="s">
+        <v>190</v>
+      </c>
       <c r="E25" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C26" t="s">
+        <v>191</v>
+      </c>
       <c r="E26" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>164</v>
+      </c>
+      <c r="C27" t="s">
+        <v>192</v>
+      </c>
       <c r="E27" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>165</v>
+      </c>
+      <c r="C28" t="s">
+        <v>193</v>
+      </c>
       <c r="E28" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>194</v>
+      </c>
       <c r="E29" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>195</v>
+      </c>
       <c r="E30" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="31" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>196</v>
+      </c>
       <c r="E31" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="32" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>197</v>
+      </c>
       <c r="E32" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>198</v>
+      </c>
       <c r="E33" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>199</v>
+      </c>
       <c r="E34" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>200</v>
+      </c>
       <c r="E35" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="5:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>201</v>
+      </c>
       <c r="E36" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>202</v>
+      </c>
       <c r="E37" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E38" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E39" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E40" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E41" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E42" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E43" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E44" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E45" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E46" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="47" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E47" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="48" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E48" t="s">
         <v>152</v>
       </c>

--- a/list of countrie.xlsx
+++ b/list of countrie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vrishab Shenvi\Desktop\Web Dev\Minipro DD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE479A63-26FB-4399-A6D9-E5056E0FFB17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628D6D5E-A5B6-47D0-9098-C325076FD569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{EB6D4232-37E0-D34F-B3A8-46FAD6E4D2CC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB6D4232-37E0-D34F-B3A8-46FAD6E4D2CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="249">
   <si>
     <t>India</t>
   </si>
@@ -723,6 +723,87 @@
   </si>
   <si>
     <t>Longganisa</t>
+  </si>
+  <si>
+    <t>Tamago Sandwich</t>
+  </si>
+  <si>
+    <t>Natto</t>
+  </si>
+  <si>
+    <t>Miso Soup</t>
+  </si>
+  <si>
+    <t>Onigiri</t>
+  </si>
+  <si>
+    <t>Grilled Salmon</t>
+  </si>
+  <si>
+    <t>Yaki Onigiri</t>
+  </si>
+  <si>
+    <t>Okayu</t>
+  </si>
+  <si>
+    <t>Katsu Sandwich</t>
+  </si>
+  <si>
+    <t>Fruit Sandwich</t>
+  </si>
+  <si>
+    <t>Mochi</t>
+  </si>
+  <si>
+    <t>Dorayaki</t>
+  </si>
+  <si>
+    <t>Dango</t>
+  </si>
+  <si>
+    <t>Taiyaki</t>
+  </si>
+  <si>
+    <t>Matcha Ice Cream</t>
+  </si>
+  <si>
+    <t>Anmitsu</t>
+  </si>
+  <si>
+    <t>Kakigori</t>
+  </si>
+  <si>
+    <t>Shiratama</t>
+  </si>
+  <si>
+    <t>Zoni</t>
+  </si>
+  <si>
+    <t>Okonomiyaki</t>
+  </si>
+  <si>
+    <t>Shabu Shabu</t>
+  </si>
+  <si>
+    <t>Nikujaga</t>
+  </si>
+  <si>
+    <t>Tonkatsu</t>
+  </si>
+  <si>
+    <t>Yaki Tori</t>
+  </si>
+  <si>
+    <t>Chirashi Sushi</t>
+  </si>
+  <si>
+    <t>Saba Shioyaki</t>
+  </si>
+  <si>
+    <t>Gomoku Gohan</t>
+  </si>
+  <si>
+    <t>Miso Katsu</t>
   </si>
 </sst>
 </file>
@@ -1125,8 +1206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1E0269-C437-A94E-8279-C3E013FE070B}">
   <dimension ref="A1:AE49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F23"/>
+    <sheetView tabSelected="1" topLeftCell="D11" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25:J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1140,6 +1221,7 @@
     <col min="7" max="7" width="12.796875" customWidth="1"/>
     <col min="8" max="8" width="16.69921875" customWidth="1"/>
     <col min="9" max="9" width="14.796875" customWidth="1"/>
+    <col min="10" max="10" width="14.19921875" customWidth="1"/>
     <col min="14" max="14" width="15.19921875" customWidth="1"/>
     <col min="15" max="15" width="17.796875" customWidth="1"/>
     <col min="16" max="16" width="12.796875" customWidth="1"/>
@@ -1439,6 +1521,9 @@
       <c r="F6" t="s">
         <v>204</v>
       </c>
+      <c r="J6" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1459,6 +1544,9 @@
       <c r="F7" s="6" t="s">
         <v>205</v>
       </c>
+      <c r="J7" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1479,6 +1567,9 @@
       <c r="F8" s="6" t="s">
         <v>206</v>
       </c>
+      <c r="J8" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1499,6 +1590,9 @@
       <c r="F9" s="6" t="s">
         <v>207</v>
       </c>
+      <c r="J9" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1516,6 +1610,9 @@
       <c r="F10" s="6" t="s">
         <v>208</v>
       </c>
+      <c r="J10" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1533,6 +1630,9 @@
       <c r="F11" s="6" t="s">
         <v>209</v>
       </c>
+      <c r="J11" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1550,6 +1650,9 @@
       <c r="F12" s="6" t="s">
         <v>210</v>
       </c>
+      <c r="J12" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -1567,6 +1670,9 @@
       <c r="F13" s="6" t="s">
         <v>211</v>
       </c>
+      <c r="J13" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -1584,6 +1690,9 @@
       <c r="F14" s="6" t="s">
         <v>212</v>
       </c>
+      <c r="J14" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1601,6 +1710,9 @@
       <c r="F15" s="6" t="s">
         <v>213</v>
       </c>
+      <c r="J15" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -1618,8 +1730,11 @@
       <c r="F16" s="6" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J16" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>154</v>
       </c>
@@ -1635,8 +1750,11 @@
       <c r="F17" s="6" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J17" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>155</v>
       </c>
@@ -1652,8 +1770,11 @@
       <c r="F18" s="6" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J18" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>156</v>
       </c>
@@ -1669,8 +1790,11 @@
       <c r="F19" s="6" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J19" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>157</v>
       </c>
@@ -1686,8 +1810,11 @@
       <c r="F20" s="6" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J20" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>158</v>
       </c>
@@ -1700,8 +1827,11 @@
       <c r="F21" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J21" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>159</v>
       </c>
@@ -1714,8 +1844,11 @@
       <c r="F22" s="6" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J22" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>160</v>
       </c>
@@ -1728,8 +1861,11 @@
       <c r="F23" s="6" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J23" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>161</v>
       </c>
@@ -1740,7 +1876,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>162</v>
       </c>
@@ -1750,8 +1886,11 @@
       <c r="E25" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J25" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>163</v>
       </c>
@@ -1761,8 +1900,11 @@
       <c r="E26" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J26" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>164</v>
       </c>
@@ -1772,8 +1914,11 @@
       <c r="E27" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J27" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>165</v>
       </c>
@@ -1783,48 +1928,66 @@
       <c r="E28" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J28" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>194</v>
       </c>
       <c r="E29" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J29" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>195</v>
       </c>
       <c r="E30" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J30" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>196</v>
       </c>
       <c r="E31" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J31" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>197</v>
       </c>
       <c r="E32" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="J32" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>198</v>
       </c>
       <c r="E33" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="J33" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="34" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>199</v>
       </c>
@@ -1832,7 +1995,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>200</v>
       </c>
@@ -1840,7 +2003,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="3:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>201</v>
       </c>
@@ -1848,7 +2011,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>202</v>
       </c>
@@ -1856,57 +2019,57 @@
         <v>141</v>
       </c>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:10" x14ac:dyDescent="0.3">
       <c r="E38" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:10" x14ac:dyDescent="0.3">
       <c r="E39" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:10" x14ac:dyDescent="0.3">
       <c r="E40" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:10" x14ac:dyDescent="0.3">
       <c r="E41" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:10" x14ac:dyDescent="0.3">
       <c r="E42" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:10" x14ac:dyDescent="0.3">
       <c r="E43" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:10" x14ac:dyDescent="0.3">
       <c r="E44" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:10" x14ac:dyDescent="0.3">
       <c r="E45" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:10" x14ac:dyDescent="0.3">
       <c r="E46" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:10" x14ac:dyDescent="0.3">
       <c r="E47" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:10" x14ac:dyDescent="0.3">
       <c r="E48" t="s">
         <v>152</v>
       </c>

--- a/list of countrie.xlsx
+++ b/list of countrie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vrishab Shenvi\Desktop\Web Dev\Minipro DD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628D6D5E-A5B6-47D0-9098-C325076FD569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5797FB89-3265-495C-B402-4EACC46C45AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB6D4232-37E0-D34F-B3A8-46FAD6E4D2CC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="278">
   <si>
     <t>India</t>
   </si>
@@ -804,6 +804,93 @@
   </si>
   <si>
     <t>Miso Katsu</t>
+  </si>
+  <si>
+    <t>Gazpacho</t>
+  </si>
+  <si>
+    <t>Patatas Bravas</t>
+  </si>
+  <si>
+    <t>Tortilla Española</t>
+  </si>
+  <si>
+    <t>Flan</t>
+  </si>
+  <si>
+    <t>Salmorejo</t>
+  </si>
+  <si>
+    <t>Pimientos Rellenos</t>
+  </si>
+  <si>
+    <t>Pisto</t>
+  </si>
+  <si>
+    <t>Cocido Madrileño</t>
+  </si>
+  <si>
+    <t>Bacalao al Pil-Pil</t>
+  </si>
+  <si>
+    <t>Salmon con Pimientos</t>
+  </si>
+  <si>
+    <t>Pulpo a la Gallega (Pulpo Gallego)</t>
+  </si>
+  <si>
+    <t>Kebap</t>
+  </si>
+  <si>
+    <t>Meze</t>
+  </si>
+  <si>
+    <t>Dolma</t>
+  </si>
+  <si>
+    <t>Manti</t>
+  </si>
+  <si>
+    <t>Pide</t>
+  </si>
+  <si>
+    <t>Kumpir</t>
+  </si>
+  <si>
+    <t>Simit</t>
+  </si>
+  <si>
+    <t>Lahmacun</t>
+  </si>
+  <si>
+    <t>Mercimek Çorbası</t>
+  </si>
+  <si>
+    <t>Börek</t>
+  </si>
+  <si>
+    <t>İmam Bayıldı</t>
+  </si>
+  <si>
+    <t>Kuzu Tandır</t>
+  </si>
+  <si>
+    <t>Yufka</t>
+  </si>
+  <si>
+    <t>Sahanda Egg</t>
+  </si>
+  <si>
+    <t>Çılbır</t>
+  </si>
+  <si>
+    <t>Kısır</t>
+  </si>
+  <si>
+    <t>Mantı</t>
+  </si>
+  <si>
+    <t>Dondurma</t>
   </si>
 </sst>
 </file>
@@ -1206,8 +1293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1E0269-C437-A94E-8279-C3E013FE070B}">
   <dimension ref="A1:AE49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D11" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25:J33"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1222,6 +1309,8 @@
     <col min="8" max="8" width="16.69921875" customWidth="1"/>
     <col min="9" max="9" width="14.796875" customWidth="1"/>
     <col min="10" max="10" width="14.19921875" customWidth="1"/>
+    <col min="12" max="12" width="16" customWidth="1"/>
+    <col min="13" max="13" width="20.296875" customWidth="1"/>
     <col min="14" max="14" width="15.19921875" customWidth="1"/>
     <col min="15" max="15" width="17.796875" customWidth="1"/>
     <col min="16" max="16" width="12.796875" customWidth="1"/>
@@ -1363,7 +1452,7 @@
         <v>34</v>
       </c>
       <c r="L3" t="s">
-        <v>37</v>
+        <v>260</v>
       </c>
       <c r="M3" t="s">
         <v>40</v>
@@ -1448,6 +1537,9 @@
       <c r="J4" t="s">
         <v>85</v>
       </c>
+      <c r="L4" t="s">
+        <v>261</v>
+      </c>
       <c r="M4" t="s">
         <v>70</v>
       </c>
@@ -1495,6 +1587,9 @@
       <c r="J5" t="s">
         <v>86</v>
       </c>
+      <c r="L5" t="s">
+        <v>262</v>
+      </c>
       <c r="M5" t="s">
         <v>71</v>
       </c>
@@ -1524,6 +1619,12 @@
       <c r="J6" t="s">
         <v>222</v>
       </c>
+      <c r="L6" t="s">
+        <v>263</v>
+      </c>
+      <c r="M6" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1547,6 +1648,12 @@
       <c r="J7" t="s">
         <v>223</v>
       </c>
+      <c r="L7" t="s">
+        <v>264</v>
+      </c>
+      <c r="M7" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1570,6 +1677,12 @@
       <c r="J8" t="s">
         <v>224</v>
       </c>
+      <c r="L8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1593,6 +1706,12 @@
       <c r="J9" t="s">
         <v>225</v>
       </c>
+      <c r="L9" t="s">
+        <v>265</v>
+      </c>
+      <c r="M9" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1613,6 +1732,12 @@
       <c r="J10" t="s">
         <v>226</v>
       </c>
+      <c r="L10" t="s">
+        <v>266</v>
+      </c>
+      <c r="M10" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1633,6 +1758,12 @@
       <c r="J11" t="s">
         <v>227</v>
       </c>
+      <c r="L11" t="s">
+        <v>267</v>
+      </c>
+      <c r="M11" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1653,6 +1784,12 @@
       <c r="J12" t="s">
         <v>228</v>
       </c>
+      <c r="L12" t="s">
+        <v>268</v>
+      </c>
+      <c r="M12" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -1673,6 +1810,12 @@
       <c r="J13" t="s">
         <v>229</v>
       </c>
+      <c r="L13" t="s">
+        <v>269</v>
+      </c>
+      <c r="M13" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -1693,6 +1836,12 @@
       <c r="J14" t="s">
         <v>230</v>
       </c>
+      <c r="L14" t="s">
+        <v>270</v>
+      </c>
+      <c r="M14" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1713,6 +1862,12 @@
       <c r="J15" t="s">
         <v>231</v>
       </c>
+      <c r="L15" t="s">
+        <v>271</v>
+      </c>
+      <c r="M15" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -1733,8 +1888,14 @@
       <c r="J16" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L16" t="s">
+        <v>272</v>
+      </c>
+      <c r="M16" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>154</v>
       </c>
@@ -1753,8 +1914,14 @@
       <c r="J17" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L17" t="s">
+        <v>273</v>
+      </c>
+      <c r="M17" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>155</v>
       </c>
@@ -1773,8 +1940,11 @@
       <c r="J18" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L18" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>156</v>
       </c>
@@ -1793,8 +1963,11 @@
       <c r="J19" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L19" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>157</v>
       </c>
@@ -1814,7 +1987,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>158</v>
       </c>
@@ -1830,8 +2003,11 @@
       <c r="J21" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L21" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>159</v>
       </c>
@@ -1847,8 +2023,11 @@
       <c r="J22" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L22" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>160</v>
       </c>
@@ -1865,7 +2044,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>161</v>
       </c>
@@ -1876,7 +2055,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>162</v>
       </c>
@@ -1890,7 +2069,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>163</v>
       </c>
@@ -1904,7 +2083,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>164</v>
       </c>
@@ -1918,7 +2097,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>165</v>
       </c>
@@ -1932,7 +2111,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>194</v>
       </c>
@@ -1943,7 +2122,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>195</v>
       </c>
@@ -1954,7 +2133,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>196</v>
       </c>
@@ -1965,7 +2144,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>197</v>
       </c>

--- a/list of countrie.xlsx
+++ b/list of countrie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vrishab Shenvi\Desktop\Web Dev\Minipro DD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5797FB89-3265-495C-B402-4EACC46C45AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D09A1FD-4A39-46CA-B23C-AC049F28E480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB6D4232-37E0-D34F-B3A8-46FAD6E4D2CC}"/>
   </bookViews>

--- a/list of countrie.xlsx
+++ b/list of countrie.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vrishab Shenvi\Desktop\Web Dev\Minipro DD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/armaan/Developer/Delicious-Descoveries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D09A1FD-4A39-46CA-B23C-AC049F28E480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F7EDDA-F235-6C47-9BEC-2A6AE0F1020E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB6D4232-37E0-D34F-B3A8-46FAD6E4D2CC}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="34200" windowHeight="19660" xr2:uid="{EB6D4232-37E0-D34F-B3A8-46FAD6E4D2CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="288">
   <si>
     <t>India</t>
   </si>
@@ -892,12 +892,42 @@
   <si>
     <t>Dondurma</t>
   </si>
+  <si>
+    <t>Asado</t>
+  </si>
+  <si>
+    <t>Chimichurri</t>
+  </si>
+  <si>
+    <t>Milanesa</t>
+  </si>
+  <si>
+    <t>Provoleta</t>
+  </si>
+  <si>
+    <t>Matambre a la Pizza</t>
+  </si>
+  <si>
+    <t>Carbonada</t>
+  </si>
+  <si>
+    <t>Humita</t>
+  </si>
+  <si>
+    <t>Locro</t>
+  </si>
+  <si>
+    <t>Alfajores</t>
+  </si>
+  <si>
+    <t>Dulce de Leche</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -944,6 +974,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -965,7 +1002,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -977,6 +1014,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1293,35 +1331,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1E0269-C437-A94E-8279-C3E013FE070B}">
   <dimension ref="A1:AE49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="163" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.19921875" customWidth="1"/>
-    <col min="2" max="2" width="17.19921875" customWidth="1"/>
-    <col min="3" max="3" width="21.69921875" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="20.296875" customWidth="1"/>
-    <col min="6" max="6" width="14.296875" customWidth="1"/>
-    <col min="7" max="7" width="12.796875" customWidth="1"/>
-    <col min="8" max="8" width="16.69921875" customWidth="1"/>
-    <col min="9" max="9" width="14.796875" customWidth="1"/>
-    <col min="10" max="10" width="14.19921875" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
-    <col min="13" max="13" width="20.296875" customWidth="1"/>
-    <col min="14" max="14" width="15.19921875" customWidth="1"/>
-    <col min="15" max="15" width="17.796875" customWidth="1"/>
-    <col min="16" max="16" width="12.796875" customWidth="1"/>
-    <col min="17" max="17" width="12.19921875" customWidth="1"/>
-    <col min="21" max="21" width="13.69921875" customWidth="1"/>
-    <col min="24" max="24" width="13.796875" customWidth="1"/>
-    <col min="25" max="25" width="15.296875" customWidth="1"/>
-    <col min="28" max="28" width="19.796875" customWidth="1"/>
+    <col min="13" max="13" width="20.33203125" customWidth="1"/>
+    <col min="14" max="14" width="15.1640625" customWidth="1"/>
+    <col min="15" max="15" width="17.83203125" customWidth="1"/>
+    <col min="16" max="16" width="12.83203125" customWidth="1"/>
+    <col min="17" max="17" width="12.1640625" customWidth="1"/>
+    <col min="21" max="21" width="13.6640625" customWidth="1"/>
+    <col min="24" max="24" width="13.83203125" customWidth="1"/>
+    <col min="25" max="25" width="15.33203125" customWidth="1"/>
+    <col min="28" max="28" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:31" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1414,10 +1452,10 @@
       </c>
       <c r="AE1" s="3"/>
     </row>
-    <row r="2" spans="1:31" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:31" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1466,8 +1504,8 @@
       <c r="P3" t="s">
         <v>53</v>
       </c>
-      <c r="Q3" t="s">
-        <v>55</v>
+      <c r="Q3" s="7" t="s">
+        <v>278</v>
       </c>
       <c r="R3" t="s">
         <v>59</v>
@@ -1509,7 +1547,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1549,6 +1587,9 @@
       <c r="O4" t="s">
         <v>92</v>
       </c>
+      <c r="Q4" s="7" t="s">
+        <v>279</v>
+      </c>
       <c r="Y4" t="s">
         <v>94</v>
       </c>
@@ -1559,7 +1600,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1593,11 +1634,14 @@
       <c r="M5" t="s">
         <v>71</v>
       </c>
+      <c r="Q5" s="7" t="s">
+        <v>280</v>
+      </c>
       <c r="AB5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1625,8 +1669,11 @@
       <c r="M6" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="Q6" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1654,8 +1701,11 @@
       <c r="M7" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="Q7" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1683,8 +1733,11 @@
       <c r="M8" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="Q8" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1712,8 +1765,11 @@
       <c r="M9" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="Q9" s="7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1738,8 +1794,11 @@
       <c r="M10" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="Q10" s="7" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>105</v>
       </c>
@@ -1764,8 +1823,11 @@
       <c r="M11" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="Q11" s="7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -1790,8 +1852,11 @@
       <c r="M12" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="Q12" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>107</v>
       </c>
@@ -1817,7 +1882,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>100</v>
       </c>
@@ -1843,7 +1908,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>106</v>
       </c>
@@ -1869,7 +1934,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>103</v>
       </c>
@@ -1895,7 +1960,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>154</v>
       </c>
@@ -1921,7 +1986,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>155</v>
       </c>
@@ -1944,7 +2009,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>156</v>
       </c>
@@ -1967,7 +2032,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>157</v>
       </c>
@@ -1987,7 +2052,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>158</v>
       </c>
@@ -2007,7 +2072,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>159</v>
       </c>
@@ -2027,7 +2092,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>160</v>
       </c>
@@ -2044,7 +2109,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>161</v>
       </c>
@@ -2055,7 +2120,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>162</v>
       </c>
@@ -2069,7 +2134,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>163</v>
       </c>
@@ -2083,7 +2148,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>164</v>
       </c>
@@ -2097,7 +2162,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>165</v>
       </c>
@@ -2111,7 +2176,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
         <v>194</v>
       </c>
@@ -2122,7 +2187,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
         <v>195</v>
       </c>
@@ -2133,7 +2198,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
         <v>196</v>
       </c>
@@ -2144,7 +2209,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
         <v>197</v>
       </c>
@@ -2155,7 +2220,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
         <v>198</v>
       </c>
@@ -2166,7 +2231,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
         <v>199</v>
       </c>
@@ -2174,7 +2239,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
         <v>200</v>
       </c>
@@ -2182,7 +2247,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="3:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:10" ht="20.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
         <v>201</v>
       </c>
@@ -2190,7 +2255,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
         <v>202</v>
       </c>
@@ -2198,62 +2263,62 @@
         <v>141</v>
       </c>
     </row>
-    <row r="38" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:10" x14ac:dyDescent="0.2">
       <c r="E38" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="39" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:10" x14ac:dyDescent="0.2">
       <c r="E39" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="40" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:10" x14ac:dyDescent="0.2">
       <c r="E40" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="41" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:10" x14ac:dyDescent="0.2">
       <c r="E41" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="42" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:10" x14ac:dyDescent="0.2">
       <c r="E42" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="43" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:10" x14ac:dyDescent="0.2">
       <c r="E43" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="44" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:10" x14ac:dyDescent="0.2">
       <c r="E44" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="45" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:10" x14ac:dyDescent="0.2">
       <c r="E45" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="46" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:10" x14ac:dyDescent="0.2">
       <c r="E46" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="47" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:10" x14ac:dyDescent="0.2">
       <c r="E47" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="48" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:10" x14ac:dyDescent="0.2">
       <c r="E48" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E49" t="s">
         <v>153</v>
       </c>

--- a/list of countrie.xlsx
+++ b/list of countrie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/armaan/Developer/Delicious-Descoveries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F7EDDA-F235-6C47-9BEC-2A6AE0F1020E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F4EB40-1C41-BD4C-BFDC-EC1A17A24677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="34200" windowHeight="19660" xr2:uid="{EB6D4232-37E0-D34F-B3A8-46FAD6E4D2CC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="289">
   <si>
     <t>India</t>
   </si>
@@ -921,6 +921,9 @@
   </si>
   <si>
     <t>Dulce de Leche</t>
+  </si>
+  <si>
+    <t>Chole Bhature</t>
   </si>
 </sst>
 </file>
@@ -1331,8 +1334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1E0269-C437-A94E-8279-C3E013FE070B}">
   <dimension ref="A1:AE49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="163" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2177,6 +2180,9 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>288</v>
+      </c>
       <c r="C29" t="s">
         <v>194</v>
       </c>

--- a/list of countrie.xlsx
+++ b/list of countrie.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/armaan/Developer/Delicious-Descoveries/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vrishab Shenvi\Desktop\Web Dev\Minipro DD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F4EB40-1C41-BD4C-BFDC-EC1A17A24677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA824E5F-DEEE-403A-8E98-05BCD0A5866A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="34200" windowHeight="19660" xr2:uid="{EB6D4232-37E0-D34F-B3A8-46FAD6E4D2CC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB6D4232-37E0-D34F-B3A8-46FAD6E4D2CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="342">
   <si>
     <t>India</t>
   </si>
@@ -924,6 +924,165 @@
   </si>
   <si>
     <t>Chole Bhature</t>
+  </si>
+  <si>
+    <t>Pierogi</t>
+  </si>
+  <si>
+    <t>Bigos</t>
+  </si>
+  <si>
+    <t>Żurek</t>
+  </si>
+  <si>
+    <t>Placki Ziemniaczane</t>
+  </si>
+  <si>
+    <t>Golabki</t>
+  </si>
+  <si>
+    <t>Makowiec</t>
+  </si>
+  <si>
+    <t>Barszcz</t>
+  </si>
+  <si>
+    <t>Sernik</t>
+  </si>
+  <si>
+    <t>Kopytka</t>
+  </si>
+  <si>
+    <t>Kaczka</t>
+  </si>
+  <si>
+    <t>Sałatka Jarzynowa</t>
+  </si>
+  <si>
+    <t>Fasolka Po Bretonsku</t>
+  </si>
+  <si>
+    <t>Nalesniki</t>
+  </si>
+  <si>
+    <t>Sernik na Zimno</t>
+  </si>
+  <si>
+    <t>Zrazy</t>
+  </si>
+  <si>
+    <t>Zupa Krem z Pomidorow</t>
+  </si>
+  <si>
+    <t>Krupnik</t>
+  </si>
+  <si>
+    <t>Torty</t>
+  </si>
+  <si>
+    <t>Zurek z Biala Kielbasa</t>
+  </si>
+  <si>
+    <t>Smazony Serek</t>
+  </si>
+  <si>
+    <t>Tom Yum Goong</t>
+  </si>
+  <si>
+    <t>Green Curry</t>
+  </si>
+  <si>
+    <t>Massaman Curry</t>
+  </si>
+  <si>
+    <t>Larb</t>
+  </si>
+  <si>
+    <t>Khao Pad</t>
+  </si>
+  <si>
+    <t>Gaeng Daeng</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Satay</t>
+  </si>
+  <si>
+    <t>Thai Spring Rolls</t>
+  </si>
+  <si>
+    <t>Khao Soi</t>
+  </si>
+  <si>
+    <t>Thai Iced Tea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moo Pad Krapow </t>
+  </si>
+  <si>
+    <t>Thai Fish Cakes</t>
+  </si>
+  <si>
+    <t>Pineapple Fried Rice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gaeng Som </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jok </t>
+  </si>
+  <si>
+    <t>Sticky Rice with Mango</t>
+  </si>
+  <si>
+    <t>Roti</t>
+  </si>
+  <si>
+    <t>som tum</t>
+  </si>
+  <si>
+    <t>Panang curry</t>
+  </si>
+  <si>
+    <t>Nasi Lemak</t>
+  </si>
+  <si>
+    <t>Char Kway Teow</t>
+  </si>
+  <si>
+    <t>Beef Rendang</t>
+  </si>
+  <si>
+    <t>Chicken Satay</t>
+  </si>
+  <si>
+    <t>Roti Canai</t>
+  </si>
+  <si>
+    <t>Hainanese Chicken Rice</t>
+  </si>
+  <si>
+    <t>Mee Goreng</t>
+  </si>
+  <si>
+    <t>Nasi Kerabu</t>
+  </si>
+  <si>
+    <t>Asam Pedas</t>
+  </si>
+  <si>
+    <t>Kuih Lapis</t>
+  </si>
+  <si>
+    <t>Rendang Ayam</t>
+  </si>
+  <si>
+    <t>Nasi Goreng</t>
+  </si>
+  <si>
+    <t>Soto Ayam</t>
+  </si>
+  <si>
+    <t>Curry Puff</t>
   </si>
 </sst>
 </file>
@@ -1334,35 +1493,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1E0269-C437-A94E-8279-C3E013FE070B}">
   <dimension ref="A1:AE49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="W5" sqref="W5:W18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.19921875" customWidth="1"/>
+    <col min="2" max="2" width="17.19921875" customWidth="1"/>
+    <col min="3" max="3" width="21.69921875" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
-    <col min="9" max="9" width="14.83203125" customWidth="1"/>
-    <col min="10" max="10" width="14.1640625" customWidth="1"/>
+    <col min="5" max="5" width="20.296875" customWidth="1"/>
+    <col min="6" max="6" width="14.296875" customWidth="1"/>
+    <col min="7" max="7" width="12.796875" customWidth="1"/>
+    <col min="8" max="8" width="16.69921875" customWidth="1"/>
+    <col min="9" max="9" width="14.796875" customWidth="1"/>
+    <col min="10" max="10" width="14.19921875" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
-    <col min="13" max="13" width="20.33203125" customWidth="1"/>
-    <col min="14" max="14" width="15.1640625" customWidth="1"/>
-    <col min="15" max="15" width="17.83203125" customWidth="1"/>
-    <col min="16" max="16" width="12.83203125" customWidth="1"/>
-    <col min="17" max="17" width="12.1640625" customWidth="1"/>
-    <col min="21" max="21" width="13.6640625" customWidth="1"/>
-    <col min="24" max="24" width="13.83203125" customWidth="1"/>
-    <col min="25" max="25" width="15.33203125" customWidth="1"/>
-    <col min="28" max="28" width="19.83203125" customWidth="1"/>
+    <col min="13" max="13" width="20.296875" customWidth="1"/>
+    <col min="14" max="14" width="15.19921875" customWidth="1"/>
+    <col min="15" max="15" width="17.796875" customWidth="1"/>
+    <col min="16" max="16" width="20.09765625" customWidth="1"/>
+    <col min="17" max="17" width="16.796875" customWidth="1"/>
+    <col min="19" max="19" width="19.5" customWidth="1"/>
+    <col min="21" max="21" width="13.69921875" customWidth="1"/>
+    <col min="23" max="23" width="20.19921875" customWidth="1"/>
+    <col min="24" max="24" width="13.796875" customWidth="1"/>
+    <col min="25" max="25" width="15.296875" customWidth="1"/>
+    <col min="28" max="28" width="19.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1455,10 +1616,10 @@
       </c>
       <c r="AE1" s="3"/>
     </row>
-    <row r="2" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1550,7 +1711,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1603,7 +1764,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1637,14 +1798,23 @@
       <c r="M5" t="s">
         <v>71</v>
       </c>
+      <c r="P5" t="s">
+        <v>289</v>
+      </c>
       <c r="Q5" s="7" t="s">
         <v>280</v>
       </c>
+      <c r="S5" t="s">
+        <v>309</v>
+      </c>
+      <c r="W5" t="s">
+        <v>328</v>
+      </c>
       <c r="AB5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1672,11 +1842,20 @@
       <c r="M6" t="s">
         <v>249</v>
       </c>
+      <c r="P6" t="s">
+        <v>290</v>
+      </c>
       <c r="Q6" s="7" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="S6" t="s">
+        <v>310</v>
+      </c>
+      <c r="W6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1704,11 +1883,20 @@
       <c r="M7" t="s">
         <v>250</v>
       </c>
+      <c r="P7" t="s">
+        <v>291</v>
+      </c>
       <c r="Q7" s="7" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="S7" t="s">
+        <v>311</v>
+      </c>
+      <c r="W7" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1736,11 +1924,20 @@
       <c r="M8" t="s">
         <v>251</v>
       </c>
+      <c r="P8" t="s">
+        <v>292</v>
+      </c>
       <c r="Q8" s="7" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="S8" t="s">
+        <v>312</v>
+      </c>
+      <c r="W8" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1768,11 +1965,20 @@
       <c r="M9" t="s">
         <v>55</v>
       </c>
+      <c r="P9" t="s">
+        <v>293</v>
+      </c>
       <c r="Q9" s="7" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="S9" t="s">
+        <v>313</v>
+      </c>
+      <c r="W9" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1797,11 +2003,20 @@
       <c r="M10" t="s">
         <v>253</v>
       </c>
+      <c r="P10" t="s">
+        <v>294</v>
+      </c>
       <c r="Q10" s="7" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="S10" t="s">
+        <v>314</v>
+      </c>
+      <c r="W10" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>105</v>
       </c>
@@ -1826,11 +2041,20 @@
       <c r="M11" t="s">
         <v>254</v>
       </c>
+      <c r="P11" t="s">
+        <v>295</v>
+      </c>
       <c r="Q11" s="7" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="S11" t="s">
+        <v>315</v>
+      </c>
+      <c r="W11" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -1855,11 +2079,20 @@
       <c r="M12" t="s">
         <v>259</v>
       </c>
+      <c r="P12" t="s">
+        <v>296</v>
+      </c>
       <c r="Q12" s="7" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="S12" t="s">
+        <v>316</v>
+      </c>
+      <c r="W12" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>107</v>
       </c>
@@ -1884,8 +2117,17 @@
       <c r="M13" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="P13" t="s">
+        <v>297</v>
+      </c>
+      <c r="S13" t="s">
+        <v>317</v>
+      </c>
+      <c r="W13" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>100</v>
       </c>
@@ -1910,8 +2152,17 @@
       <c r="M14" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="P14" t="s">
+        <v>298</v>
+      </c>
+      <c r="S14" t="s">
+        <v>318</v>
+      </c>
+      <c r="W14" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>106</v>
       </c>
@@ -1936,8 +2187,17 @@
       <c r="M15" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="P15" t="s">
+        <v>299</v>
+      </c>
+      <c r="S15" t="s">
+        <v>319</v>
+      </c>
+      <c r="W15" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>103</v>
       </c>
@@ -1962,8 +2222,17 @@
       <c r="M16" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P16" t="s">
+        <v>300</v>
+      </c>
+      <c r="S16" t="s">
+        <v>320</v>
+      </c>
+      <c r="W16" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>154</v>
       </c>
@@ -1988,8 +2257,17 @@
       <c r="M17" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P17" t="s">
+        <v>301</v>
+      </c>
+      <c r="S17" t="s">
+        <v>321</v>
+      </c>
+      <c r="W17" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>155</v>
       </c>
@@ -2011,8 +2289,17 @@
       <c r="L18" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P18" t="s">
+        <v>302</v>
+      </c>
+      <c r="S18" t="s">
+        <v>322</v>
+      </c>
+      <c r="W18" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>156</v>
       </c>
@@ -2034,8 +2321,14 @@
       <c r="L19" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P19" t="s">
+        <v>303</v>
+      </c>
+      <c r="S19" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>157</v>
       </c>
@@ -2054,8 +2347,14 @@
       <c r="J20" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P20" t="s">
+        <v>304</v>
+      </c>
+      <c r="S20" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>158</v>
       </c>
@@ -2074,8 +2373,14 @@
       <c r="L21" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P21" t="s">
+        <v>305</v>
+      </c>
+      <c r="S21" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>159</v>
       </c>
@@ -2094,8 +2399,14 @@
       <c r="L22" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P22" t="s">
+        <v>306</v>
+      </c>
+      <c r="S22" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>160</v>
       </c>
@@ -2111,8 +2422,14 @@
       <c r="J23" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P23" t="s">
+        <v>307</v>
+      </c>
+      <c r="S23" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>161</v>
       </c>
@@ -2122,8 +2439,11 @@
       <c r="E24" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P24" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>162</v>
       </c>
@@ -2137,7 +2457,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>163</v>
       </c>
@@ -2151,7 +2471,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>164</v>
       </c>
@@ -2165,7 +2485,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>165</v>
       </c>
@@ -2179,7 +2499,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>288</v>
       </c>
@@ -2193,7 +2513,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>195</v>
       </c>
@@ -2204,7 +2524,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>196</v>
       </c>
@@ -2215,7 +2535,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>197</v>
       </c>
@@ -2226,7 +2546,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>198</v>
       </c>
@@ -2237,7 +2557,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>199</v>
       </c>
@@ -2245,7 +2565,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>200</v>
       </c>
@@ -2253,7 +2573,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="3:10" ht="20.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:10" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>201</v>
       </c>
@@ -2261,7 +2581,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>202</v>
       </c>
@@ -2269,62 +2589,62 @@
         <v>141</v>
       </c>
     </row>
-    <row r="38" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:10" x14ac:dyDescent="0.3">
       <c r="E38" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="39" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:10" x14ac:dyDescent="0.3">
       <c r="E39" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="40" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:10" x14ac:dyDescent="0.3">
       <c r="E40" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="41" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:10" x14ac:dyDescent="0.3">
       <c r="E41" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="42" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:10" x14ac:dyDescent="0.3">
       <c r="E42" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="43" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:10" x14ac:dyDescent="0.3">
       <c r="E43" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="44" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:10" x14ac:dyDescent="0.3">
       <c r="E44" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="45" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:10" x14ac:dyDescent="0.3">
       <c r="E45" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="46" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:10" x14ac:dyDescent="0.3">
       <c r="E46" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="47" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:10" x14ac:dyDescent="0.3">
       <c r="E47" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="48" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:10" x14ac:dyDescent="0.3">
       <c r="E48" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E49" t="s">
         <v>153</v>
       </c>

--- a/list of countrie.xlsx
+++ b/list of countrie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vrishab Shenvi\Desktop\Web Dev\Minipro DD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA824E5F-DEEE-403A-8E98-05BCD0A5866A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF57C992-DCF4-4607-9AAA-3EDCE4B7B095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB6D4232-37E0-D34F-B3A8-46FAD6E4D2CC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="383">
   <si>
     <t>India</t>
   </si>
@@ -1083,6 +1083,129 @@
   </si>
   <si>
     <t>Curry Puff</t>
+  </si>
+  <si>
+    <t>Borscht</t>
+  </si>
+  <si>
+    <t>Pelmeni</t>
+  </si>
+  <si>
+    <t>Blini</t>
+  </si>
+  <si>
+    <t>Olivier Salad</t>
+  </si>
+  <si>
+    <t>Pirozhki</t>
+  </si>
+  <si>
+    <t>Vareniki</t>
+  </si>
+  <si>
+    <t>Syrniki</t>
+  </si>
+  <si>
+    <t>Kasha</t>
+  </si>
+  <si>
+    <t>Medovik</t>
+  </si>
+  <si>
+    <t>Kholodets</t>
+  </si>
+  <si>
+    <t>Paskha</t>
+  </si>
+  <si>
+    <t>Golubtsy</t>
+  </si>
+  <si>
+    <t>Kasha Varnishkes</t>
+  </si>
+  <si>
+    <t>Kvass</t>
+  </si>
+  <si>
+    <t>Rassolnik</t>
+  </si>
+  <si>
+    <t>Pirozhki with Cherries</t>
+  </si>
+  <si>
+    <t>Pirog with Cabbage</t>
+  </si>
+  <si>
+    <t>Kurnik</t>
+  </si>
+  <si>
+    <t>Kasha with Mushrooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egusi Soup </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pounded Yam  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moi Moi  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suya  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pepper Soup  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boli </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afang Soup  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Efo Riro  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akara  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ofada Rice and Ayamase Sauce  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ofe Nsala </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ewedu Soup  </t>
+  </si>
+  <si>
+    <t>Lomo Saltado</t>
+  </si>
+  <si>
+    <t>Ají de Gallina</t>
+  </si>
+  <si>
+    <t>Papa a la Huancaína</t>
+  </si>
+  <si>
+    <t>Pollo a la Brasa</t>
+  </si>
+  <si>
+    <t>Anticuchos</t>
+  </si>
+  <si>
+    <t>Rocoto Relleno</t>
+  </si>
+  <si>
+    <t>Tacu Tacu</t>
+  </si>
+  <si>
+    <t>Causa Limena</t>
+  </si>
+  <si>
+    <t>Arroz con Pollo</t>
+  </si>
+  <si>
+    <t>Leche de Tigre</t>
   </si>
 </sst>
 </file>
@@ -1493,8 +1616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1E0269-C437-A94E-8279-C3E013FE070B}">
   <dimension ref="A1:AE49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="W5" sqref="W5:W18"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="AC5" sqref="AC5:AC14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1518,7 +1641,7 @@
     <col min="19" max="19" width="19.5" customWidth="1"/>
     <col min="21" max="21" width="13.69921875" customWidth="1"/>
     <col min="23" max="23" width="20.19921875" customWidth="1"/>
-    <col min="24" max="24" width="13.796875" customWidth="1"/>
+    <col min="24" max="24" width="19.69921875" customWidth="1"/>
     <col min="25" max="25" width="15.296875" customWidth="1"/>
     <col min="28" max="28" width="19.796875" customWidth="1"/>
   </cols>
@@ -1810,8 +1933,17 @@
       <c r="W5" t="s">
         <v>328</v>
       </c>
+      <c r="X5" t="s">
+        <v>342</v>
+      </c>
       <c r="AB5" t="s">
         <v>99</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>373</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.3">
@@ -1854,6 +1986,15 @@
       <c r="W6" t="s">
         <v>329</v>
       </c>
+      <c r="X6" t="s">
+        <v>343</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>374</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1895,6 +2036,15 @@
       <c r="W7" t="s">
         <v>330</v>
       </c>
+      <c r="X7" t="s">
+        <v>344</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>375</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1936,6 +2086,15 @@
       <c r="W8" t="s">
         <v>331</v>
       </c>
+      <c r="X8" t="s">
+        <v>345</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>376</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1977,6 +2136,15 @@
       <c r="W9" t="s">
         <v>332</v>
       </c>
+      <c r="X9" t="s">
+        <v>346</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>377</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -2015,6 +2183,15 @@
       <c r="W10" t="s">
         <v>333</v>
       </c>
+      <c r="X10" t="s">
+        <v>347</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>378</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -2053,6 +2230,15 @@
       <c r="W11" t="s">
         <v>334</v>
       </c>
+      <c r="X11" t="s">
+        <v>348</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>379</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -2091,6 +2277,15 @@
       <c r="W12" t="s">
         <v>335</v>
       </c>
+      <c r="X12" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>380</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -2126,6 +2321,15 @@
       <c r="W13" t="s">
         <v>336</v>
       </c>
+      <c r="X13" t="s">
+        <v>350</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>381</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -2161,6 +2365,15 @@
       <c r="W14" t="s">
         <v>337</v>
       </c>
+      <c r="X14" t="s">
+        <v>351</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>382</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -2196,6 +2409,12 @@
       <c r="W15" t="s">
         <v>338</v>
       </c>
+      <c r="X15" t="s">
+        <v>352</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -2231,8 +2450,14 @@
       <c r="W16" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X16" t="s">
+        <v>353</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>154</v>
       </c>
@@ -2266,8 +2491,11 @@
       <c r="W17" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X17" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>155</v>
       </c>
@@ -2298,8 +2526,11 @@
       <c r="W18" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X18" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>156</v>
       </c>
@@ -2327,8 +2558,11 @@
       <c r="S19" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X19" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>157</v>
       </c>
@@ -2353,8 +2587,11 @@
       <c r="S20" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X20" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>158</v>
       </c>
@@ -2379,8 +2616,11 @@
       <c r="S21" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X21" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>159</v>
       </c>
@@ -2405,8 +2645,11 @@
       <c r="S22" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X22" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>160</v>
       </c>
@@ -2428,8 +2671,11 @@
       <c r="S23" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X23" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>161</v>
       </c>
@@ -2443,7 +2689,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>162</v>
       </c>
@@ -2457,7 +2703,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>163</v>
       </c>
@@ -2471,7 +2717,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>164</v>
       </c>
@@ -2485,7 +2731,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>165</v>
       </c>
@@ -2499,7 +2745,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>288</v>
       </c>
@@ -2513,7 +2759,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>195</v>
       </c>
@@ -2524,7 +2770,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>196</v>
       </c>
@@ -2535,7 +2781,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>197</v>
       </c>

--- a/list of countrie.xlsx
+++ b/list of countrie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vrishab Shenvi\Desktop\Web Dev\Minipro DD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF57C992-DCF4-4607-9AAA-3EDCE4B7B095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7D083A-AA88-4C89-9754-0D6A83918E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB6D4232-37E0-D34F-B3A8-46FAD6E4D2CC}"/>
   </bookViews>
@@ -1616,8 +1616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1E0269-C437-A94E-8279-C3E013FE070B}">
   <dimension ref="A1:AE49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="AC5" sqref="AC5:AC14"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="AB12" sqref="AB12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1644,6 +1644,8 @@
     <col min="24" max="24" width="19.69921875" customWidth="1"/>
     <col min="25" max="25" width="15.296875" customWidth="1"/>
     <col min="28" max="28" width="19.796875" customWidth="1"/>
+    <col min="29" max="29" width="13.8984375" customWidth="1"/>
+    <col min="30" max="30" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="25.8" x14ac:dyDescent="0.5">

--- a/list of countrie.xlsx
+++ b/list of countrie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vrishab Shenvi\Desktop\Web Dev\Minipro DD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7D083A-AA88-4C89-9754-0D6A83918E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F71F5E3-466E-41ED-98FB-B7A0371E96D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB6D4232-37E0-D34F-B3A8-46FAD6E4D2CC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="384">
   <si>
     <t>India</t>
   </si>
@@ -1206,6 +1206,9 @@
   </si>
   <si>
     <t>Leche de Tigre</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
   </si>
 </sst>
 </file>
@@ -1616,8 +1619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1E0269-C437-A94E-8279-C3E013FE070B}">
   <dimension ref="A1:AE49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="AB12" sqref="AB12"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="AH7" sqref="AH7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1739,10 +1742,15 @@
       <c r="AD1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="AE1" s="3"/>
+      <c r="AE1" s="3" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="2" spans="1:31" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
+      <c r="AE2" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="3" spans="1:31" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -2227,7 +2235,7 @@
         <v>286</v>
       </c>
       <c r="S11" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="W11" t="s">
         <v>334</v>
@@ -2274,7 +2282,7 @@
         <v>287</v>
       </c>
       <c r="S12" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="W12" t="s">
         <v>335</v>
@@ -2318,7 +2326,7 @@
         <v>297</v>
       </c>
       <c r="S13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="W13" t="s">
         <v>336</v>
@@ -2327,7 +2335,7 @@
         <v>350</v>
       </c>
       <c r="AC13" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AD13" t="s">
         <v>369</v>
@@ -2362,16 +2370,13 @@
         <v>298</v>
       </c>
       <c r="S14" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="W14" t="s">
         <v>337</v>
       </c>
       <c r="X14" t="s">
         <v>351</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>382</v>
       </c>
       <c r="AD14" t="s">
         <v>370</v>
@@ -2406,7 +2411,7 @@
         <v>299</v>
       </c>
       <c r="S15" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="W15" t="s">
         <v>338</v>
@@ -2447,7 +2452,7 @@
         <v>300</v>
       </c>
       <c r="S16" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="W16" t="s">
         <v>339</v>
@@ -2488,7 +2493,7 @@
         <v>301</v>
       </c>
       <c r="S17" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="W17" t="s">
         <v>340</v>
@@ -2519,11 +2524,14 @@
       <c r="L18" t="s">
         <v>274</v>
       </c>
+      <c r="M18" t="s">
+        <v>381</v>
+      </c>
       <c r="P18" t="s">
         <v>302</v>
       </c>
       <c r="S18" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="W18" t="s">
         <v>341</v>
@@ -2558,7 +2566,7 @@
         <v>303</v>
       </c>
       <c r="S19" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X19" t="s">
         <v>356</v>
@@ -2587,7 +2595,7 @@
         <v>304</v>
       </c>
       <c r="S20" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="X20" t="s">
         <v>357</v>
@@ -2616,7 +2624,7 @@
         <v>305</v>
       </c>
       <c r="S21" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="X21" t="s">
         <v>358</v>
@@ -2645,7 +2653,7 @@
         <v>306</v>
       </c>
       <c r="S22" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="X22" t="s">
         <v>359</v>
@@ -2669,9 +2677,6 @@
       </c>
       <c r="P23" t="s">
         <v>307</v>
-      </c>
-      <c r="S23" t="s">
-        <v>327</v>
       </c>
       <c r="X23" t="s">
         <v>360</v>
